--- a/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,15 @@
     <t>['62', '63', '74']</t>
   </si>
   <si>
+    <t>['26', '53']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['2', '20']</t>
+  </si>
+  <si>
     <t>['64', '90+4']</t>
   </si>
   <si>
@@ -707,9 +716,6 @@
   </si>
   <si>
     <t>['12', '45']</t>
-  </si>
-  <si>
-    <t>['9']</t>
   </si>
   <si>
     <t>['25', '82', '86']</t>
@@ -827,6 +833,12 @@
   </si>
   <si>
     <t>['17', '59']</t>
+  </si>
+  <si>
+    <t>['14', '26']</t>
+  </si>
+  <si>
+    <t>['42', '62', '70']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK191"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1519,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT2">
         <v>1.64</v>
@@ -1710,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT3">
         <v>0.36</v>
@@ -1814,7 +1826,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2005,7 +2017,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2477,7 +2489,7 @@
         <v>1.91</v>
       </c>
       <c r="AT7">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2578,7 +2590,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2668,7 +2680,7 @@
         <v>1.45</v>
       </c>
       <c r="AT8">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3151,7 +3163,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3238,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT11">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3533,7 +3545,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3620,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT13">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3724,7 +3736,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -3814,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4193,10 +4205,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4384,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT17">
         <v>0.55</v>
@@ -4679,7 +4691,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -4766,10 +4778,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT19">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -5252,7 +5264,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5339,7 +5351,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
         <v>1.64</v>
@@ -5443,7 +5455,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5724,7 +5736,7 @@
         <v>1.55</v>
       </c>
       <c r="AT24">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5825,7 +5837,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -6676,7 +6688,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT29">
         <v>0.8</v>
@@ -6870,7 +6882,7 @@
         <v>2.4</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU30">
         <v>0.93</v>
@@ -7058,10 +7070,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT31">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU31">
         <v>1.55</v>
@@ -7252,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU32">
         <v>2.61</v>
@@ -7440,10 +7452,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT33">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU33">
         <v>1.96</v>
@@ -7631,7 +7643,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT34">
         <v>1.8</v>
@@ -7735,7 +7747,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -7822,7 +7834,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT35">
         <v>1.73</v>
@@ -7926,7 +7938,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8016,7 +8028,7 @@
         <v>1.7</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU36">
         <v>1.24</v>
@@ -8117,7 +8129,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8204,10 +8216,10 @@
         <v>2</v>
       </c>
       <c r="AS37">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT37">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU37">
         <v>1.13</v>
@@ -8499,7 +8511,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8881,7 +8893,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9645,7 +9657,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10114,10 +10126,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU47">
         <v>1.96</v>
@@ -10305,10 +10317,10 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT48">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU48">
         <v>1.67</v>
@@ -10409,7 +10421,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10499,7 +10511,7 @@
         <v>2.4</v>
       </c>
       <c r="AT49">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU49">
         <v>1.02</v>
@@ -10600,7 +10612,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>-1</v>
@@ -10687,7 +10699,7 @@
         <v>0.5</v>
       </c>
       <c r="AS50">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT50">
         <v>0.8</v>
@@ -10791,7 +10803,7 @@
         <v>83</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -10881,7 +10893,7 @@
         <v>1.82</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU51">
         <v>1.38</v>
@@ -11173,7 +11185,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11263,7 +11275,7 @@
         <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU53">
         <v>0.9399999999999999</v>
@@ -11451,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT54">
         <v>1.8</v>
@@ -11642,10 +11654,10 @@
         <v>1.5</v>
       </c>
       <c r="AS55">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT55">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU55">
         <v>0.93</v>
@@ -12128,7 +12140,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12406,7 +12418,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT59">
         <v>1.18</v>
@@ -12510,7 +12522,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13274,7 +13286,7 @@
         <v>105</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13465,7 +13477,7 @@
         <v>118</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13552,10 +13564,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT65">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU65">
         <v>1.59</v>
@@ -13743,10 +13755,10 @@
         <v>1</v>
       </c>
       <c r="AS66">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT66">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU66">
         <v>1.26</v>
@@ -13847,7 +13859,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14507,10 +14519,10 @@
         <v>1.67</v>
       </c>
       <c r="AS70">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT70">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU70">
         <v>1.78</v>
@@ -14611,7 +14623,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14892,7 +14904,7 @@
         <v>1.82</v>
       </c>
       <c r="AT72">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU72">
         <v>1.28</v>
@@ -14993,7 +15005,7 @@
         <v>83</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15080,10 +15092,10 @@
         <v>1</v>
       </c>
       <c r="AS73">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU73">
         <v>1.55</v>
@@ -15271,7 +15283,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT74">
         <v>0.82</v>
@@ -15375,7 +15387,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15566,7 +15578,7 @@
         <v>83</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15948,7 +15960,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16420,7 +16432,7 @@
         <v>2.36</v>
       </c>
       <c r="AT80">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU80">
         <v>1.72</v>
@@ -16608,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="AS81">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT81">
         <v>0.55</v>
@@ -16903,7 +16915,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17184,7 +17196,7 @@
         <v>1.82</v>
       </c>
       <c r="AT84">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU84">
         <v>1.25</v>
@@ -17285,7 +17297,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17375,7 +17387,7 @@
         <v>1.82</v>
       </c>
       <c r="AT85">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU85">
         <v>1.69</v>
@@ -17476,7 +17488,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>-1</v>
@@ -17563,7 +17575,7 @@
         <v>0.2</v>
       </c>
       <c r="AS86">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT86">
         <v>0.55</v>
@@ -17754,7 +17766,7 @@
         <v>1.2</v>
       </c>
       <c r="AS87">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -17948,7 +17960,7 @@
         <v>1.7</v>
       </c>
       <c r="AT88">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU88">
         <v>1.34</v>
@@ -18049,7 +18061,7 @@
         <v>83</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18240,7 +18252,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18327,10 +18339,10 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT90">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.6</v>
@@ -18431,7 +18443,7 @@
         <v>126</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>8</v>
@@ -18518,7 +18530,7 @@
         <v>1</v>
       </c>
       <c r="AS91">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT91">
         <v>0.8</v>
@@ -18813,7 +18825,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -18900,7 +18912,7 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT93">
         <v>1.55</v>
@@ -19004,7 +19016,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19285,7 +19297,7 @@
         <v>1.91</v>
       </c>
       <c r="AT95">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU95">
         <v>1.75</v>
@@ -19577,7 +19589,7 @@
         <v>83</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -19667,7 +19679,7 @@
         <v>1.09</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU97">
         <v>1.89</v>
@@ -19855,7 +19867,7 @@
         <v>0</v>
       </c>
       <c r="AS98">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT98">
         <v>0.36</v>
@@ -20150,7 +20162,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20341,7 +20353,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20428,10 +20440,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU101">
         <v>1.65</v>
@@ -20619,7 +20631,7 @@
         <v>0.67</v>
       </c>
       <c r="AS102">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT102">
         <v>0.55</v>
@@ -20723,7 +20735,7 @@
         <v>150</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -20914,7 +20926,7 @@
         <v>151</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>4</v>
@@ -21004,7 +21016,7 @@
         <v>1.82</v>
       </c>
       <c r="AT104">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU104">
         <v>1.69</v>
@@ -21386,7 +21398,7 @@
         <v>1.64</v>
       </c>
       <c r="AT106">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU106">
         <v>1.45</v>
@@ -21768,7 +21780,7 @@
         <v>2.36</v>
       </c>
       <c r="AT108">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU108">
         <v>1.58</v>
@@ -21956,7 +21968,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT109">
         <v>0.55</v>
@@ -22060,7 +22072,7 @@
         <v>83</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -22338,7 +22350,7 @@
         <v>0.8</v>
       </c>
       <c r="AS111">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT111">
         <v>1.18</v>
@@ -22442,7 +22454,7 @@
         <v>155</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -22529,7 +22541,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT112">
         <v>0.55</v>
@@ -22914,7 +22926,7 @@
         <v>1.45</v>
       </c>
       <c r="AT114">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU114">
         <v>1.87</v>
@@ -23015,7 +23027,7 @@
         <v>83</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23105,7 +23117,7 @@
         <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU115">
         <v>1.92</v>
@@ -23206,7 +23218,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>6</v>
@@ -23293,7 +23305,7 @@
         <v>1.33</v>
       </c>
       <c r="AS116">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT116">
         <v>1.55</v>
@@ -23397,7 +23409,7 @@
         <v>83</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23970,7 +23982,7 @@
         <v>158</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>5</v>
@@ -24248,7 +24260,7 @@
         <v>0.86</v>
       </c>
       <c r="AS121">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT121">
         <v>1.18</v>
@@ -24442,7 +24454,7 @@
         <v>1.82</v>
       </c>
       <c r="AT122">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU122">
         <v>1.45</v>
@@ -24633,7 +24645,7 @@
         <v>1.64</v>
       </c>
       <c r="AT123">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU123">
         <v>1.48</v>
@@ -24734,7 +24746,7 @@
         <v>160</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q124">
         <v>9</v>
@@ -24824,7 +24836,7 @@
         <v>1.09</v>
       </c>
       <c r="AT124">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU124">
         <v>1.56</v>
@@ -25394,7 +25406,7 @@
         <v>0.43</v>
       </c>
       <c r="AS127">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT127">
         <v>0.55</v>
@@ -25779,7 +25791,7 @@
         <v>1.82</v>
       </c>
       <c r="AT129">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU129">
         <v>1.6</v>
@@ -25967,10 +25979,10 @@
         <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT130">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU130">
         <v>1.14</v>
@@ -26071,7 +26083,7 @@
         <v>165</v>
       </c>
       <c r="P131" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -26161,7 +26173,7 @@
         <v>1.45</v>
       </c>
       <c r="AT131">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU131">
         <v>1.84</v>
@@ -26262,7 +26274,7 @@
         <v>83</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>8</v>
@@ -26349,7 +26361,7 @@
         <v>0.67</v>
       </c>
       <c r="AS132">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT132">
         <v>1.18</v>
@@ -26453,7 +26465,7 @@
         <v>130</v>
       </c>
       <c r="P133" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>9</v>
@@ -26540,7 +26552,7 @@
         <v>1.83</v>
       </c>
       <c r="AS133">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT133">
         <v>1.73</v>
@@ -26835,7 +26847,7 @@
         <v>166</v>
       </c>
       <c r="P135" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q135">
         <v>6</v>
@@ -26922,7 +26934,7 @@
         <v>0.14</v>
       </c>
       <c r="AS135">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT135">
         <v>0.36</v>
@@ -28071,7 +28083,7 @@
         <v>1.09</v>
       </c>
       <c r="AT141">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU141">
         <v>1.56</v>
@@ -28453,7 +28465,7 @@
         <v>2.36</v>
       </c>
       <c r="AT143">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU143">
         <v>1.6</v>
@@ -28641,7 +28653,7 @@
         <v>0.25</v>
       </c>
       <c r="AS144">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT144">
         <v>0.82</v>
@@ -28745,7 +28757,7 @@
         <v>173</v>
       </c>
       <c r="P145" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q145">
         <v>6</v>
@@ -28832,7 +28844,7 @@
         <v>1.75</v>
       </c>
       <c r="AS145">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT145">
         <v>1.55</v>
@@ -28936,7 +28948,7 @@
         <v>83</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q146">
         <v>4</v>
@@ -29023,7 +29035,7 @@
         <v>1.71</v>
       </c>
       <c r="AS146">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT146">
         <v>1.8</v>
@@ -29214,10 +29226,10 @@
         <v>0.71</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU147">
         <v>1.75</v>
@@ -29318,7 +29330,7 @@
         <v>175</v>
       </c>
       <c r="P148" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29599,7 +29611,7 @@
         <v>2.4</v>
       </c>
       <c r="AT149">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU149">
         <v>1.61</v>
@@ -29700,7 +29712,7 @@
         <v>125</v>
       </c>
       <c r="P150" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>4</v>
@@ -29790,7 +29802,7 @@
         <v>1.82</v>
       </c>
       <c r="AT150">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU150">
         <v>1.57</v>
@@ -29891,7 +29903,7 @@
         <v>177</v>
       </c>
       <c r="P151" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q151">
         <v>12</v>
@@ -29978,7 +29990,7 @@
         <v>0.86</v>
       </c>
       <c r="AS151">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT151">
         <v>0.55</v>
@@ -30273,7 +30285,7 @@
         <v>179</v>
       </c>
       <c r="P153" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q153">
         <v>6</v>
@@ -30360,7 +30372,7 @@
         <v>2</v>
       </c>
       <c r="AS153">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT153">
         <v>1.73</v>
@@ -30464,7 +30476,7 @@
         <v>180</v>
       </c>
       <c r="P154" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q154">
         <v>4</v>
@@ -30554,7 +30566,7 @@
         <v>1.55</v>
       </c>
       <c r="AT154">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU154">
         <v>1.72</v>
@@ -30742,10 +30754,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT155">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU155">
         <v>1.72</v>
@@ -30846,7 +30858,7 @@
         <v>182</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -30933,10 +30945,10 @@
         <v>1.25</v>
       </c>
       <c r="AS156">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT156">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU156">
         <v>1.01</v>
@@ -31127,7 +31139,7 @@
         <v>1.82</v>
       </c>
       <c r="AT157">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU157">
         <v>1.52</v>
@@ -31228,7 +31240,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31700,7 +31712,7 @@
         <v>2.4</v>
       </c>
       <c r="AT160">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU160">
         <v>1.77</v>
@@ -31801,7 +31813,7 @@
         <v>185</v>
       </c>
       <c r="P161" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q161">
         <v>6</v>
@@ -31888,7 +31900,7 @@
         <v>1.88</v>
       </c>
       <c r="AS161">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT161">
         <v>1.8</v>
@@ -32079,7 +32091,7 @@
         <v>1.75</v>
       </c>
       <c r="AS162">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT162">
         <v>1.73</v>
@@ -32374,7 +32386,7 @@
         <v>187</v>
       </c>
       <c r="P164" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q164">
         <v>8</v>
@@ -32464,7 +32476,7 @@
         <v>1.45</v>
       </c>
       <c r="AT164">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU164">
         <v>1.67</v>
@@ -33138,7 +33150,7 @@
         <v>189</v>
       </c>
       <c r="P168" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q168">
         <v>3</v>
@@ -33225,7 +33237,7 @@
         <v>0.78</v>
       </c>
       <c r="AS168">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT168">
         <v>1.18</v>
@@ -33902,7 +33914,7 @@
         <v>191</v>
       </c>
       <c r="P172" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q172">
         <v>4</v>
@@ -34093,7 +34105,7 @@
         <v>83</v>
       </c>
       <c r="P173" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q173">
         <v>4</v>
@@ -34183,7 +34195,7 @@
         <v>1.7</v>
       </c>
       <c r="AT173">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AU173">
         <v>1.42</v>
@@ -34371,10 +34383,10 @@
         <v>0.89</v>
       </c>
       <c r="AS174">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT174">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU174">
         <v>1.53</v>
@@ -34562,7 +34574,7 @@
         <v>1.67</v>
       </c>
       <c r="AS175">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="AT175">
         <v>1.73</v>
@@ -34753,10 +34765,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS176">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AT176">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU176">
         <v>1.61</v>
@@ -34947,7 +34959,7 @@
         <v>2.4</v>
       </c>
       <c r="AT177">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AU177">
         <v>1.78</v>
@@ -35135,7 +35147,7 @@
         <v>0.89</v>
       </c>
       <c r="AS178">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT178">
         <v>0.8</v>
@@ -35239,7 +35251,7 @@
         <v>144</v>
       </c>
       <c r="P179" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q179">
         <v>7</v>
@@ -35329,7 +35341,7 @@
         <v>1.82</v>
       </c>
       <c r="AT179">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AU179">
         <v>1.52</v>
@@ -35708,7 +35720,7 @@
         <v>2</v>
       </c>
       <c r="AS181">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AT181">
         <v>1.8</v>
@@ -36003,7 +36015,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q183">
         <v>3</v>
@@ -36194,7 +36206,7 @@
         <v>198</v>
       </c>
       <c r="P184" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q184">
         <v>4</v>
@@ -36385,7 +36397,7 @@
         <v>83</v>
       </c>
       <c r="P185" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q185">
         <v>9</v>
@@ -36767,7 +36779,7 @@
         <v>83</v>
       </c>
       <c r="P187" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q187">
         <v>5</v>
@@ -37340,7 +37352,7 @@
         <v>132</v>
       </c>
       <c r="P190" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q190">
         <v>3</v>
@@ -37531,7 +37543,7 @@
         <v>126</v>
       </c>
       <c r="P191" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q191">
         <v>7</v>
@@ -37673,6 +37685,1152 @@
       </c>
       <c r="BK191">
         <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:63">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>5403312</v>
+      </c>
+      <c r="C192" t="s">
+        <v>63</v>
+      </c>
+      <c r="D192" t="s">
+        <v>64</v>
+      </c>
+      <c r="E192" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F192">
+        <v>22</v>
+      </c>
+      <c r="G192" t="s">
+        <v>66</v>
+      </c>
+      <c r="H192" t="s">
+        <v>73</v>
+      </c>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>2</v>
+      </c>
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>201</v>
+      </c>
+      <c r="P192" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q192">
+        <v>6</v>
+      </c>
+      <c r="R192">
+        <v>5</v>
+      </c>
+      <c r="S192">
+        <v>11</v>
+      </c>
+      <c r="T192">
+        <v>3.5</v>
+      </c>
+      <c r="U192">
+        <v>1.91</v>
+      </c>
+      <c r="V192">
+        <v>3.25</v>
+      </c>
+      <c r="W192">
+        <v>1.52</v>
+      </c>
+      <c r="X192">
+        <v>2.35</v>
+      </c>
+      <c r="Y192">
+        <v>3.3</v>
+      </c>
+      <c r="Z192">
+        <v>1.27</v>
+      </c>
+      <c r="AA192">
+        <v>7.8</v>
+      </c>
+      <c r="AB192">
+        <v>1.05</v>
+      </c>
+      <c r="AC192">
+        <v>2.75</v>
+      </c>
+      <c r="AD192">
+        <v>2.88</v>
+      </c>
+      <c r="AE192">
+        <v>2.45</v>
+      </c>
+      <c r="AF192">
+        <v>1.09</v>
+      </c>
+      <c r="AG192">
+        <v>7.5</v>
+      </c>
+      <c r="AH192">
+        <v>1.41</v>
+      </c>
+      <c r="AI192">
+        <v>2.55</v>
+      </c>
+      <c r="AJ192">
+        <v>2.4</v>
+      </c>
+      <c r="AK192">
+        <v>1.53</v>
+      </c>
+      <c r="AL192">
+        <v>1.9</v>
+      </c>
+      <c r="AM192">
+        <v>1.8</v>
+      </c>
+      <c r="AN192">
+        <v>1.45</v>
+      </c>
+      <c r="AO192">
+        <v>1.36</v>
+      </c>
+      <c r="AP192">
+        <v>1.36</v>
+      </c>
+      <c r="AQ192">
+        <v>1.1</v>
+      </c>
+      <c r="AR192">
+        <v>1.2</v>
+      </c>
+      <c r="AS192">
+        <v>1.27</v>
+      </c>
+      <c r="AT192">
+        <v>1.09</v>
+      </c>
+      <c r="AU192">
+        <v>1.55</v>
+      </c>
+      <c r="AV192">
+        <v>0.99</v>
+      </c>
+      <c r="AW192">
+        <v>2.54</v>
+      </c>
+      <c r="AX192">
+        <v>0</v>
+      </c>
+      <c r="AY192">
+        <v>0</v>
+      </c>
+      <c r="AZ192">
+        <v>0</v>
+      </c>
+      <c r="BA192">
+        <v>0</v>
+      </c>
+      <c r="BB192">
+        <v>0</v>
+      </c>
+      <c r="BC192">
+        <v>0</v>
+      </c>
+      <c r="BD192">
+        <v>0</v>
+      </c>
+      <c r="BE192">
+        <v>0</v>
+      </c>
+      <c r="BF192">
+        <v>7</v>
+      </c>
+      <c r="BG192">
+        <v>3</v>
+      </c>
+      <c r="BH192">
+        <v>1</v>
+      </c>
+      <c r="BI192">
+        <v>7</v>
+      </c>
+      <c r="BJ192">
+        <v>8</v>
+      </c>
+      <c r="BK192">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:63">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>5403313</v>
+      </c>
+      <c r="C193" t="s">
+        <v>63</v>
+      </c>
+      <c r="D193" t="s">
+        <v>64</v>
+      </c>
+      <c r="E193" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F193">
+        <v>22</v>
+      </c>
+      <c r="G193" t="s">
+        <v>65</v>
+      </c>
+      <c r="H193" t="s">
+        <v>68</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>2</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+      <c r="M193">
+        <v>1</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>202</v>
+      </c>
+      <c r="P193" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q193">
+        <v>9</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>11</v>
+      </c>
+      <c r="T193">
+        <v>2.63</v>
+      </c>
+      <c r="U193">
+        <v>1.95</v>
+      </c>
+      <c r="V193">
+        <v>4.5</v>
+      </c>
+      <c r="W193">
+        <v>1.52</v>
+      </c>
+      <c r="X193">
+        <v>2.35</v>
+      </c>
+      <c r="Y193">
+        <v>3.34</v>
+      </c>
+      <c r="Z193">
+        <v>1.26</v>
+      </c>
+      <c r="AA193">
+        <v>7.8</v>
+      </c>
+      <c r="AB193">
+        <v>1.05</v>
+      </c>
+      <c r="AC193">
+        <v>1.85</v>
+      </c>
+      <c r="AD193">
+        <v>3.1</v>
+      </c>
+      <c r="AE193">
+        <v>3.8</v>
+      </c>
+      <c r="AF193">
+        <v>1.08</v>
+      </c>
+      <c r="AG193">
+        <v>7.85</v>
+      </c>
+      <c r="AH193">
+        <v>1.5</v>
+      </c>
+      <c r="AI193">
+        <v>2.4</v>
+      </c>
+      <c r="AJ193">
+        <v>2.4</v>
+      </c>
+      <c r="AK193">
+        <v>1.53</v>
+      </c>
+      <c r="AL193">
+        <v>2.25</v>
+      </c>
+      <c r="AM193">
+        <v>1.58</v>
+      </c>
+      <c r="AN193">
+        <v>1.17</v>
+      </c>
+      <c r="AO193">
+        <v>1.3</v>
+      </c>
+      <c r="AP193">
+        <v>1.9</v>
+      </c>
+      <c r="AQ193">
+        <v>1.9</v>
+      </c>
+      <c r="AR193">
+        <v>0.5</v>
+      </c>
+      <c r="AS193">
+        <v>1.82</v>
+      </c>
+      <c r="AT193">
+        <v>0.55</v>
+      </c>
+      <c r="AU193">
+        <v>1.73</v>
+      </c>
+      <c r="AV193">
+        <v>1.14</v>
+      </c>
+      <c r="AW193">
+        <v>2.87</v>
+      </c>
+      <c r="AX193">
+        <v>0</v>
+      </c>
+      <c r="AY193">
+        <v>0</v>
+      </c>
+      <c r="AZ193">
+        <v>0</v>
+      </c>
+      <c r="BA193">
+        <v>0</v>
+      </c>
+      <c r="BB193">
+        <v>0</v>
+      </c>
+      <c r="BC193">
+        <v>0</v>
+      </c>
+      <c r="BD193">
+        <v>0</v>
+      </c>
+      <c r="BE193">
+        <v>0</v>
+      </c>
+      <c r="BF193">
+        <v>3</v>
+      </c>
+      <c r="BG193">
+        <v>5</v>
+      </c>
+      <c r="BH193">
+        <v>3</v>
+      </c>
+      <c r="BI193">
+        <v>3</v>
+      </c>
+      <c r="BJ193">
+        <v>6</v>
+      </c>
+      <c r="BK193">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:63">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>5403315</v>
+      </c>
+      <c r="C194" t="s">
+        <v>63</v>
+      </c>
+      <c r="D194" t="s">
+        <v>64</v>
+      </c>
+      <c r="E194" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F194">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s">
+        <v>74</v>
+      </c>
+      <c r="H194" t="s">
+        <v>69</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>0</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194" t="s">
+        <v>83</v>
+      </c>
+      <c r="P194" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q194">
+        <v>8</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>8</v>
+      </c>
+      <c r="T194">
+        <v>2.05</v>
+      </c>
+      <c r="U194">
+        <v>2.2</v>
+      </c>
+      <c r="V194">
+        <v>5.5</v>
+      </c>
+      <c r="W194">
+        <v>1.35</v>
+      </c>
+      <c r="X194">
+        <v>2.86</v>
+      </c>
+      <c r="Y194">
+        <v>2.77</v>
+      </c>
+      <c r="Z194">
+        <v>1.37</v>
+      </c>
+      <c r="AA194">
+        <v>6.5</v>
+      </c>
+      <c r="AB194">
+        <v>1.08</v>
+      </c>
+      <c r="AC194">
+        <v>1.5</v>
+      </c>
+      <c r="AD194">
+        <v>3.6</v>
+      </c>
+      <c r="AE194">
+        <v>5.75</v>
+      </c>
+      <c r="AF194">
+        <v>1.04</v>
+      </c>
+      <c r="AG194">
+        <v>12.25</v>
+      </c>
+      <c r="AH194">
+        <v>1.29</v>
+      </c>
+      <c r="AI194">
+        <v>3.15</v>
+      </c>
+      <c r="AJ194">
+        <v>1.9</v>
+      </c>
+      <c r="AK194">
+        <v>1.9</v>
+      </c>
+      <c r="AL194">
+        <v>2.15</v>
+      </c>
+      <c r="AM194">
+        <v>1.62</v>
+      </c>
+      <c r="AN194">
+        <v>1.1</v>
+      </c>
+      <c r="AO194">
+        <v>1.21</v>
+      </c>
+      <c r="AP194">
+        <v>2.34</v>
+      </c>
+      <c r="AQ194">
+        <v>2</v>
+      </c>
+      <c r="AR194">
+        <v>1.2</v>
+      </c>
+      <c r="AS194">
+        <v>1.91</v>
+      </c>
+      <c r="AT194">
+        <v>1.18</v>
+      </c>
+      <c r="AU194">
+        <v>1.67</v>
+      </c>
+      <c r="AV194">
+        <v>1.44</v>
+      </c>
+      <c r="AW194">
+        <v>3.11</v>
+      </c>
+      <c r="AX194">
+        <v>0</v>
+      </c>
+      <c r="AY194">
+        <v>0</v>
+      </c>
+      <c r="AZ194">
+        <v>0</v>
+      </c>
+      <c r="BA194">
+        <v>0</v>
+      </c>
+      <c r="BB194">
+        <v>0</v>
+      </c>
+      <c r="BC194">
+        <v>0</v>
+      </c>
+      <c r="BD194">
+        <v>0</v>
+      </c>
+      <c r="BE194">
+        <v>0</v>
+      </c>
+      <c r="BF194">
+        <v>2</v>
+      </c>
+      <c r="BG194">
+        <v>2</v>
+      </c>
+      <c r="BH194">
+        <v>7</v>
+      </c>
+      <c r="BI194">
+        <v>1</v>
+      </c>
+      <c r="BJ194">
+        <v>9</v>
+      </c>
+      <c r="BK194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:63">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>5403316</v>
+      </c>
+      <c r="C195" t="s">
+        <v>63</v>
+      </c>
+      <c r="D195" t="s">
+        <v>64</v>
+      </c>
+      <c r="E195" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F195">
+        <v>22</v>
+      </c>
+      <c r="G195" t="s">
+        <v>79</v>
+      </c>
+      <c r="H195" t="s">
+        <v>70</v>
+      </c>
+      <c r="I195">
+        <v>2</v>
+      </c>
+      <c r="J195">
+        <v>2</v>
+      </c>
+      <c r="K195">
+        <v>4</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>2</v>
+      </c>
+      <c r="N195">
+        <v>4</v>
+      </c>
+      <c r="O195" t="s">
+        <v>203</v>
+      </c>
+      <c r="P195" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q195">
+        <v>12</v>
+      </c>
+      <c r="R195">
+        <v>0</v>
+      </c>
+      <c r="S195">
+        <v>12</v>
+      </c>
+      <c r="T195">
+        <v>2.4</v>
+      </c>
+      <c r="U195">
+        <v>2.1</v>
+      </c>
+      <c r="V195">
+        <v>4.75</v>
+      </c>
+      <c r="W195">
+        <v>1.48</v>
+      </c>
+      <c r="X195">
+        <v>2.45</v>
+      </c>
+      <c r="Y195">
+        <v>3.1</v>
+      </c>
+      <c r="Z195">
+        <v>1.3</v>
+      </c>
+      <c r="AA195">
+        <v>7.3</v>
+      </c>
+      <c r="AB195">
+        <v>1.06</v>
+      </c>
+      <c r="AC195">
+        <v>1.73</v>
+      </c>
+      <c r="AD195">
+        <v>3.3</v>
+      </c>
+      <c r="AE195">
+        <v>4.2</v>
+      </c>
+      <c r="AF195">
+        <v>1.07</v>
+      </c>
+      <c r="AG195">
+        <v>8.85</v>
+      </c>
+      <c r="AH195">
+        <v>1.36</v>
+      </c>
+      <c r="AI195">
+        <v>2.74</v>
+      </c>
+      <c r="AJ195">
+        <v>2.05</v>
+      </c>
+      <c r="AK195">
+        <v>1.75</v>
+      </c>
+      <c r="AL195">
+        <v>2.1</v>
+      </c>
+      <c r="AM195">
+        <v>1.68</v>
+      </c>
+      <c r="AN195">
+        <v>1.17</v>
+      </c>
+      <c r="AO195">
+        <v>1.27</v>
+      </c>
+      <c r="AP195">
+        <v>1.93</v>
+      </c>
+      <c r="AQ195">
+        <v>1.7</v>
+      </c>
+      <c r="AR195">
+        <v>0.8</v>
+      </c>
+      <c r="AS195">
+        <v>1.64</v>
+      </c>
+      <c r="AT195">
+        <v>0.82</v>
+      </c>
+      <c r="AU195">
+        <v>1.64</v>
+      </c>
+      <c r="AV195">
+        <v>1.43</v>
+      </c>
+      <c r="AW195">
+        <v>3.07</v>
+      </c>
+      <c r="AX195">
+        <v>0</v>
+      </c>
+      <c r="AY195">
+        <v>0</v>
+      </c>
+      <c r="AZ195">
+        <v>0</v>
+      </c>
+      <c r="BA195">
+        <v>0</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>0</v>
+      </c>
+      <c r="BD195">
+        <v>0</v>
+      </c>
+      <c r="BE195">
+        <v>0</v>
+      </c>
+      <c r="BF195">
+        <v>4</v>
+      </c>
+      <c r="BG195">
+        <v>3</v>
+      </c>
+      <c r="BH195">
+        <v>9</v>
+      </c>
+      <c r="BI195">
+        <v>1</v>
+      </c>
+      <c r="BJ195">
+        <v>13</v>
+      </c>
+      <c r="BK195">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>5403318</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>76</v>
+      </c>
+      <c r="H196" t="s">
+        <v>82</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>3</v>
+      </c>
+      <c r="N196">
+        <v>3</v>
+      </c>
+      <c r="O196" t="s">
+        <v>83</v>
+      </c>
+      <c r="P196" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q196">
+        <v>6</v>
+      </c>
+      <c r="R196">
+        <v>2</v>
+      </c>
+      <c r="S196">
+        <v>8</v>
+      </c>
+      <c r="T196">
+        <v>3.1</v>
+      </c>
+      <c r="U196">
+        <v>1.95</v>
+      </c>
+      <c r="V196">
+        <v>3.75</v>
+      </c>
+      <c r="W196">
+        <v>1.55</v>
+      </c>
+      <c r="X196">
+        <v>2.3</v>
+      </c>
+      <c r="Y196">
+        <v>3.44</v>
+      </c>
+      <c r="Z196">
+        <v>1.25</v>
+      </c>
+      <c r="AA196">
+        <v>8.4</v>
+      </c>
+      <c r="AB196">
+        <v>1.04</v>
+      </c>
+      <c r="AC196">
+        <v>2.25</v>
+      </c>
+      <c r="AD196">
+        <v>2.88</v>
+      </c>
+      <c r="AE196">
+        <v>3.1</v>
+      </c>
+      <c r="AF196">
+        <v>1.1</v>
+      </c>
+      <c r="AG196">
+        <v>7.1</v>
+      </c>
+      <c r="AH196">
+        <v>1.46</v>
+      </c>
+      <c r="AI196">
+        <v>2.52</v>
+      </c>
+      <c r="AJ196">
+        <v>2.4</v>
+      </c>
+      <c r="AK196">
+        <v>1.53</v>
+      </c>
+      <c r="AL196">
+        <v>2</v>
+      </c>
+      <c r="AM196">
+        <v>1.72</v>
+      </c>
+      <c r="AN196">
+        <v>1.22</v>
+      </c>
+      <c r="AO196">
+        <v>1.37</v>
+      </c>
+      <c r="AP196">
+        <v>1.52</v>
+      </c>
+      <c r="AQ196">
+        <v>1.5</v>
+      </c>
+      <c r="AR196">
+        <v>1.1</v>
+      </c>
+      <c r="AS196">
+        <v>1.36</v>
+      </c>
+      <c r="AT196">
+        <v>1.27</v>
+      </c>
+      <c r="AU196">
+        <v>1.55</v>
+      </c>
+      <c r="AV196">
+        <v>1.35</v>
+      </c>
+      <c r="AW196">
+        <v>2.9</v>
+      </c>
+      <c r="AX196">
+        <v>0</v>
+      </c>
+      <c r="AY196">
+        <v>0</v>
+      </c>
+      <c r="AZ196">
+        <v>0</v>
+      </c>
+      <c r="BA196">
+        <v>0</v>
+      </c>
+      <c r="BB196">
+        <v>0</v>
+      </c>
+      <c r="BC196">
+        <v>0</v>
+      </c>
+      <c r="BD196">
+        <v>0</v>
+      </c>
+      <c r="BE196">
+        <v>0</v>
+      </c>
+      <c r="BF196">
+        <v>3</v>
+      </c>
+      <c r="BG196">
+        <v>6</v>
+      </c>
+      <c r="BH196">
+        <v>4</v>
+      </c>
+      <c r="BI196">
+        <v>3</v>
+      </c>
+      <c r="BJ196">
+        <v>7</v>
+      </c>
+      <c r="BK196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>5403319</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44997.4375</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>81</v>
+      </c>
+      <c r="H197" t="s">
+        <v>75</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>117</v>
+      </c>
+      <c r="P197" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q197">
+        <v>8</v>
+      </c>
+      <c r="R197">
+        <v>3</v>
+      </c>
+      <c r="S197">
+        <v>11</v>
+      </c>
+      <c r="T197">
+        <v>3</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>3.6</v>
+      </c>
+      <c r="W197">
+        <v>1.41</v>
+      </c>
+      <c r="X197">
+        <v>2.63</v>
+      </c>
+      <c r="Y197">
+        <v>2.93</v>
+      </c>
+      <c r="Z197">
+        <v>1.33</v>
+      </c>
+      <c r="AA197">
+        <v>7</v>
+      </c>
+      <c r="AB197">
+        <v>1.07</v>
+      </c>
+      <c r="AC197">
+        <v>2.2</v>
+      </c>
+      <c r="AD197">
+        <v>3.2</v>
+      </c>
+      <c r="AE197">
+        <v>2.9</v>
+      </c>
+      <c r="AF197">
+        <v>1.06</v>
+      </c>
+      <c r="AG197">
+        <v>9.35</v>
+      </c>
+      <c r="AH197">
+        <v>1.34</v>
+      </c>
+      <c r="AI197">
+        <v>2.82</v>
+      </c>
+      <c r="AJ197">
+        <v>2.15</v>
+      </c>
+      <c r="AK197">
+        <v>1.67</v>
+      </c>
+      <c r="AL197">
+        <v>1.9</v>
+      </c>
+      <c r="AM197">
+        <v>1.8</v>
+      </c>
+      <c r="AN197">
+        <v>1.38</v>
+      </c>
+      <c r="AO197">
+        <v>1.32</v>
+      </c>
+      <c r="AP197">
+        <v>1.45</v>
+      </c>
+      <c r="AQ197">
+        <v>1.3</v>
+      </c>
+      <c r="AR197">
+        <v>0.8</v>
+      </c>
+      <c r="AS197">
+        <v>1.27</v>
+      </c>
+      <c r="AT197">
+        <v>0.82</v>
+      </c>
+      <c r="AU197">
+        <v>1.06</v>
+      </c>
+      <c r="AV197">
+        <v>1.58</v>
+      </c>
+      <c r="AW197">
+        <v>2.64</v>
+      </c>
+      <c r="AX197">
+        <v>0</v>
+      </c>
+      <c r="AY197">
+        <v>0</v>
+      </c>
+      <c r="AZ197">
+        <v>0</v>
+      </c>
+      <c r="BA197">
+        <v>0</v>
+      </c>
+      <c r="BB197">
+        <v>0</v>
+      </c>
+      <c r="BC197">
+        <v>0</v>
+      </c>
+      <c r="BD197">
+        <v>0</v>
+      </c>
+      <c r="BE197">
+        <v>0</v>
+      </c>
+      <c r="BF197">
+        <v>3</v>
+      </c>
+      <c r="BG197">
+        <v>3</v>
+      </c>
+      <c r="BH197">
+        <v>0</v>
+      </c>
+      <c r="BI197">
+        <v>5</v>
+      </c>
+      <c r="BJ197">
+        <v>3</v>
+      </c>
+      <c r="BK197">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,12 @@
     <t>['2', '20']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
     <t>['64', '90+4']</t>
   </si>
   <si>
@@ -688,9 +694,6 @@
     <t>['58']</t>
   </si>
   <si>
-    <t>['80']</t>
-  </si>
-  <si>
     <t>['45', '79']</t>
   </si>
   <si>
@@ -734,9 +737,6 @@
   </si>
   <si>
     <t>['62']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['53', '69']</t>
@@ -839,6 +839,9 @@
   </si>
   <si>
     <t>['42', '62', '70']</t>
+  </si>
+  <si>
+    <t>['6', '39', '64']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1826,7 +1829,7 @@
         <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -2017,7 +2020,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q5">
         <v>3</v>
@@ -2590,7 +2593,7 @@
         <v>88</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -3163,7 +3166,7 @@
         <v>90</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -3444,7 +3447,7 @@
         <v>1.82</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3545,7 +3548,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>4</v>
@@ -3736,7 +3739,7 @@
         <v>92</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>9</v>
@@ -4014,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT15">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4587,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT18">
         <v>1.73</v>
@@ -4691,7 +4694,7 @@
         <v>83</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>5</v>
@@ -5264,7 +5267,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>4</v>
@@ -5455,7 +5458,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5837,7 +5840,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>11</v>
@@ -6691,7 +6694,7 @@
         <v>1.36</v>
       </c>
       <c r="AT29">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU29">
         <v>1.63</v>
@@ -6879,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT30">
         <v>0.82</v>
@@ -7646,7 +7649,7 @@
         <v>1.91</v>
       </c>
       <c r="AT34">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU34">
         <v>0.82</v>
@@ -7747,7 +7750,7 @@
         <v>110</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>12</v>
@@ -7938,7 +7941,7 @@
         <v>111</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8025,7 +8028,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT36">
         <v>0.55</v>
@@ -8129,7 +8132,7 @@
         <v>112</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8511,7 +8514,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8893,7 +8896,7 @@
         <v>83</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9657,7 +9660,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>2</v>
@@ -10421,7 +10424,7 @@
         <v>119</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10508,7 +10511,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT49">
         <v>1.27</v>
@@ -10612,7 +10615,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>-1</v>
@@ -10702,7 +10705,7 @@
         <v>1.64</v>
       </c>
       <c r="AT50">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU50">
         <v>1.59</v>
@@ -10803,7 +10806,7 @@
         <v>83</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>6</v>
@@ -11185,7 +11188,7 @@
         <v>83</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11272,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT53">
         <v>1.18</v>
@@ -11466,7 +11469,7 @@
         <v>1.82</v>
       </c>
       <c r="AT54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU54">
         <v>1.61</v>
@@ -12140,7 +12143,7 @@
         <v>125</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>11</v>
@@ -12522,7 +12525,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>8</v>
@@ -13286,7 +13289,7 @@
         <v>105</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13477,7 +13480,7 @@
         <v>118</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13859,7 +13862,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13946,10 +13949,10 @@
         <v>0.33</v>
       </c>
       <c r="AS67">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT67">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU67">
         <v>1.43</v>
@@ -14328,7 +14331,7 @@
         <v>0</v>
       </c>
       <c r="AS69">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT69">
         <v>0.55</v>
@@ -14623,7 +14626,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14713,7 +14716,7 @@
         <v>1.82</v>
       </c>
       <c r="AT71">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU71">
         <v>1.59</v>
@@ -15005,7 +15008,7 @@
         <v>83</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>7</v>
@@ -15387,7 +15390,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>2</v>
@@ -15578,7 +15581,7 @@
         <v>83</v>
       </c>
       <c r="P76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>11</v>
@@ -15960,7 +15963,7 @@
         <v>136</v>
       </c>
       <c r="P78" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>4</v>
@@ -16915,7 +16918,7 @@
         <v>137</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17005,7 +17008,7 @@
         <v>1.64</v>
       </c>
       <c r="AT83">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU83">
         <v>1.5</v>
@@ -17297,7 +17300,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>2</v>
@@ -17488,7 +17491,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>-1</v>
@@ -17957,7 +17960,7 @@
         <v>0.8</v>
       </c>
       <c r="AS88">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT88">
         <v>0.82</v>
@@ -18252,7 +18255,7 @@
         <v>143</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18443,7 +18446,7 @@
         <v>126</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>8</v>
@@ -18533,7 +18536,7 @@
         <v>1.27</v>
       </c>
       <c r="AT91">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU91">
         <v>1.76</v>
@@ -18825,7 +18828,7 @@
         <v>83</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>8</v>
@@ -19016,7 +19019,7 @@
         <v>145</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>12</v>
@@ -19589,7 +19592,7 @@
         <v>83</v>
       </c>
       <c r="P97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>1</v>
@@ -20162,7 +20165,7 @@
         <v>147</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20249,7 +20252,7 @@
         <v>0.4</v>
       </c>
       <c r="AS100">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT100">
         <v>0.82</v>
@@ -20353,7 +20356,7 @@
         <v>148</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20735,7 +20738,7 @@
         <v>150</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21207,7 +21210,7 @@
         <v>1.82</v>
       </c>
       <c r="AT105">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU105">
         <v>1.41</v>
@@ -21586,7 +21589,7 @@
         <v>1</v>
       </c>
       <c r="AS107">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT107">
         <v>1.18</v>
@@ -23499,7 +23502,7 @@
         <v>1.91</v>
       </c>
       <c r="AT117">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU117">
         <v>1.8</v>
@@ -23687,7 +23690,7 @@
         <v>0.17</v>
       </c>
       <c r="AS118">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT118">
         <v>0.36</v>
@@ -25027,7 +25030,7 @@
         <v>2.36</v>
       </c>
       <c r="AT125">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU125">
         <v>1.56</v>
@@ -25215,7 +25218,7 @@
         <v>0.29</v>
       </c>
       <c r="AS126">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT126">
         <v>0.82</v>
@@ -26746,7 +26749,7 @@
         <v>1.55</v>
       </c>
       <c r="AT134">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU134">
         <v>1.84</v>
@@ -27125,7 +27128,7 @@
         <v>1</v>
       </c>
       <c r="AS136">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT136">
         <v>0.55</v>
@@ -27319,7 +27322,7 @@
         <v>1.91</v>
       </c>
       <c r="AT137">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU137">
         <v>1.7</v>
@@ -29038,7 +29041,7 @@
         <v>1.27</v>
       </c>
       <c r="AT146">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU146">
         <v>1.03</v>
@@ -29608,7 +29611,7 @@
         <v>1.14</v>
       </c>
       <c r="AS149">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT149">
         <v>1.09</v>
@@ -30181,7 +30184,7 @@
         <v>1</v>
       </c>
       <c r="AS152">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT152">
         <v>1.18</v>
@@ -31330,7 +31333,7 @@
         <v>1.55</v>
       </c>
       <c r="AT158">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU158">
         <v>1.75</v>
@@ -31518,7 +31521,7 @@
         <v>0.75</v>
       </c>
       <c r="AS159">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT159">
         <v>0.55</v>
@@ -31709,7 +31712,7 @@
         <v>0.63</v>
       </c>
       <c r="AS160">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT160">
         <v>0.55</v>
@@ -31903,7 +31906,7 @@
         <v>1.36</v>
       </c>
       <c r="AT161">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU161">
         <v>1.63</v>
@@ -34192,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AS173">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AT173">
         <v>1.09</v>
@@ -34956,7 +34959,7 @@
         <v>1.22</v>
       </c>
       <c r="AS177">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AT177">
         <v>1.18</v>
@@ -35150,7 +35153,7 @@
         <v>1.27</v>
       </c>
       <c r="AT178">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU178">
         <v>1.07</v>
@@ -35723,7 +35726,7 @@
         <v>1.64</v>
       </c>
       <c r="AT181">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU181">
         <v>1.72</v>
@@ -38831,6 +38834,388 @@
       </c>
       <c r="BK197">
         <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>5403314</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44998.4375</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>80</v>
+      </c>
+      <c r="H198" t="s">
+        <v>72</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>3</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+      <c r="M198">
+        <v>3</v>
+      </c>
+      <c r="N198">
+        <v>4</v>
+      </c>
+      <c r="O198" t="s">
+        <v>204</v>
+      </c>
+      <c r="P198" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q198">
+        <v>3</v>
+      </c>
+      <c r="R198">
+        <v>13</v>
+      </c>
+      <c r="S198">
+        <v>16</v>
+      </c>
+      <c r="T198">
+        <v>7.5</v>
+      </c>
+      <c r="U198">
+        <v>2.1</v>
+      </c>
+      <c r="V198">
+        <v>1.95</v>
+      </c>
+      <c r="W198">
+        <v>1.46</v>
+      </c>
+      <c r="X198">
+        <v>2.53</v>
+      </c>
+      <c r="Y198">
+        <v>3.15</v>
+      </c>
+      <c r="Z198">
+        <v>1.32</v>
+      </c>
+      <c r="AA198">
+        <v>7.5</v>
+      </c>
+      <c r="AB198">
+        <v>1.06</v>
+      </c>
+      <c r="AC198">
+        <v>7</v>
+      </c>
+      <c r="AD198">
+        <v>4</v>
+      </c>
+      <c r="AE198">
+        <v>1.4</v>
+      </c>
+      <c r="AF198">
+        <v>1.07</v>
+      </c>
+      <c r="AG198">
+        <v>8.85</v>
+      </c>
+      <c r="AH198">
+        <v>1.39</v>
+      </c>
+      <c r="AI198">
+        <v>2.78</v>
+      </c>
+      <c r="AJ198">
+        <v>2.15</v>
+      </c>
+      <c r="AK198">
+        <v>1.67</v>
+      </c>
+      <c r="AL198">
+        <v>2.45</v>
+      </c>
+      <c r="AM198">
+        <v>1.48</v>
+      </c>
+      <c r="AN198">
+        <v>2.35</v>
+      </c>
+      <c r="AO198">
+        <v>1.24</v>
+      </c>
+      <c r="AP198">
+        <v>1.12</v>
+      </c>
+      <c r="AQ198">
+        <v>1.7</v>
+      </c>
+      <c r="AR198">
+        <v>1.8</v>
+      </c>
+      <c r="AS198">
+        <v>1.55</v>
+      </c>
+      <c r="AT198">
+        <v>1.91</v>
+      </c>
+      <c r="AU198">
+        <v>1.42</v>
+      </c>
+      <c r="AV198">
+        <v>1.48</v>
+      </c>
+      <c r="AW198">
+        <v>2.9</v>
+      </c>
+      <c r="AX198">
+        <v>0</v>
+      </c>
+      <c r="AY198">
+        <v>0</v>
+      </c>
+      <c r="AZ198">
+        <v>0</v>
+      </c>
+      <c r="BA198">
+        <v>0</v>
+      </c>
+      <c r="BB198">
+        <v>0</v>
+      </c>
+      <c r="BC198">
+        <v>0</v>
+      </c>
+      <c r="BD198">
+        <v>0</v>
+      </c>
+      <c r="BE198">
+        <v>0</v>
+      </c>
+      <c r="BF198">
+        <v>2</v>
+      </c>
+      <c r="BG198">
+        <v>7</v>
+      </c>
+      <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
+        <v>16</v>
+      </c>
+      <c r="BJ198">
+        <v>9</v>
+      </c>
+      <c r="BK198">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>5403317</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44998.4375</v>
+      </c>
+      <c r="F199">
+        <v>22</v>
+      </c>
+      <c r="G199" t="s">
+        <v>78</v>
+      </c>
+      <c r="H199" t="s">
+        <v>71</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>205</v>
+      </c>
+      <c r="P199" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q199">
+        <v>4</v>
+      </c>
+      <c r="R199">
+        <v>3</v>
+      </c>
+      <c r="S199">
+        <v>7</v>
+      </c>
+      <c r="T199">
+        <v>2.5</v>
+      </c>
+      <c r="U199">
+        <v>2</v>
+      </c>
+      <c r="V199">
+        <v>4.75</v>
+      </c>
+      <c r="W199">
+        <v>1.45</v>
+      </c>
+      <c r="X199">
+        <v>2.5</v>
+      </c>
+      <c r="Y199">
+        <v>3.05</v>
+      </c>
+      <c r="Z199">
+        <v>1.32</v>
+      </c>
+      <c r="AA199">
+        <v>7.25</v>
+      </c>
+      <c r="AB199">
+        <v>1.06</v>
+      </c>
+      <c r="AC199">
+        <v>1.8</v>
+      </c>
+      <c r="AD199">
+        <v>3.25</v>
+      </c>
+      <c r="AE199">
+        <v>4</v>
+      </c>
+      <c r="AF199">
+        <v>1.06</v>
+      </c>
+      <c r="AG199">
+        <v>9.6</v>
+      </c>
+      <c r="AH199">
+        <v>1.35</v>
+      </c>
+      <c r="AI199">
+        <v>2.93</v>
+      </c>
+      <c r="AJ199">
+        <v>2.2</v>
+      </c>
+      <c r="AK199">
+        <v>1.65</v>
+      </c>
+      <c r="AL199">
+        <v>1.95</v>
+      </c>
+      <c r="AM199">
+        <v>1.75</v>
+      </c>
+      <c r="AN199">
+        <v>1.2</v>
+      </c>
+      <c r="AO199">
+        <v>1.27</v>
+      </c>
+      <c r="AP199">
+        <v>1.95</v>
+      </c>
+      <c r="AQ199">
+        <v>2.4</v>
+      </c>
+      <c r="AR199">
+        <v>0.8</v>
+      </c>
+      <c r="AS199">
+        <v>2.45</v>
+      </c>
+      <c r="AT199">
+        <v>0.73</v>
+      </c>
+      <c r="AU199">
+        <v>1.72</v>
+      </c>
+      <c r="AV199">
+        <v>1.22</v>
+      </c>
+      <c r="AW199">
+        <v>2.94</v>
+      </c>
+      <c r="AX199">
+        <v>0</v>
+      </c>
+      <c r="AY199">
+        <v>0</v>
+      </c>
+      <c r="AZ199">
+        <v>0</v>
+      </c>
+      <c r="BA199">
+        <v>0</v>
+      </c>
+      <c r="BB199">
+        <v>0</v>
+      </c>
+      <c r="BC199">
+        <v>0</v>
+      </c>
+      <c r="BD199">
+        <v>0</v>
+      </c>
+      <c r="BE199">
+        <v>0</v>
+      </c>
+      <c r="BF199">
+        <v>4</v>
+      </c>
+      <c r="BG199">
+        <v>4</v>
+      </c>
+      <c r="BH199">
+        <v>5</v>
+      </c>
+      <c r="BI199">
+        <v>8</v>
+      </c>
+      <c r="BJ199">
+        <v>9</v>
+      </c>
+      <c r="BK199">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK202"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.82</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT8" t="n">
         <v>1.27</v>
@@ -2324,7 +2324,7 @@
         <v>2.36</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.82</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT12" t="n">
         <v>0.73</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT19" t="n">
         <v>0.82</v>
@@ -4760,7 +4760,7 @@
         <v>2.36</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU21" t="n">
         <v>1.39</v>
@@ -4963,7 +4963,7 @@
         <v>1.27</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU22" t="n">
         <v>2.15</v>
@@ -5572,7 +5572,7 @@
         <v>1.91</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU25" t="n">
         <v>1.47</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT26" t="n">
         <v>0.55</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT37" t="n">
         <v>1.27</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT38" t="n">
         <v>0.55</v>
@@ -8414,7 +8414,7 @@
         <v>1.91</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.43</v>
@@ -8617,7 +8617,7 @@
         <v>1.82</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.38</v>
@@ -9226,7 +9226,7 @@
         <v>1.42</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU43" t="n">
         <v>1.66</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT45" t="n">
         <v>0.75</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT57" t="n">
         <v>0.75</v>
@@ -12471,10 +12471,10 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU59" t="n">
         <v>1.06</v>
@@ -12677,7 +12677,7 @@
         <v>1.42</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU60" t="n">
         <v>1.4</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT62" t="n">
         <v>1.55</v>
@@ -13489,7 +13489,7 @@
         <v>1.82</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU64" t="n">
         <v>1.43</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU68" t="n">
         <v>2.05</v>
@@ -15516,10 +15516,10 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT75" t="n">
         <v>1.55</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT79" t="n">
         <v>1.18</v>
@@ -17143,7 +17143,7 @@
         <v>1.58</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU82" t="n">
         <v>1.72</v>
@@ -18158,7 +18158,7 @@
         <v>1.64</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU87" t="n">
         <v>1.7</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT92" t="n">
         <v>1.18</v>
@@ -19982,7 +19982,7 @@
         <v>2.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT96" t="n">
         <v>1.73</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT98" t="n">
         <v>0.33</v>
@@ -20594,7 +20594,7 @@
         <v>2.36</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.67</v>
@@ -20797,7 +20797,7 @@
         <v>2.45</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU100" t="n">
         <v>1.32</v>
@@ -21406,7 +21406,7 @@
         <v>2</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU103" t="n">
         <v>1.83</v>
@@ -22218,7 +22218,7 @@
         <v>1.55</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU107" t="n">
         <v>1.39</v>
@@ -22827,7 +22827,7 @@
         <v>1.25</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT112" t="n">
         <v>0.58</v>
@@ -23433,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT113" t="n">
         <v>1.73</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT114" t="n">
         <v>0.55</v>
@@ -25060,7 +25060,7 @@
         <v>1.27</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU121" t="n">
         <v>1.67</v>
@@ -26075,7 +26075,7 @@
         <v>1.55</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26481,7 +26481,7 @@
         <v>1.91</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU128" t="n">
         <v>1.76</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT129" t="n">
         <v>0.55</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT130" t="n">
         <v>1.09</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT131" t="n">
         <v>1.18</v>
@@ -28714,7 +28714,7 @@
         <v>1.82</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU139" t="n">
         <v>1.51</v>
@@ -29729,7 +29729,7 @@
         <v>1.27</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU144" t="n">
         <v>1.63</v>
@@ -30132,7 +30132,7 @@
         <v>1.71</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT146" t="n">
         <v>1.91</v>
@@ -30538,10 +30538,10 @@
         <v>1.63</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU148" t="n">
         <v>1.78</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT150" t="n">
         <v>1.18</v>
@@ -32162,7 +32162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT156" t="n">
         <v>1.18</v>
@@ -32365,7 +32365,7 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT157" t="n">
         <v>0.82</v>
@@ -33786,7 +33786,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT164" t="n">
         <v>0.82</v>
@@ -33992,7 +33992,7 @@
         <v>1.58</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34195,7 +34195,7 @@
         <v>1.25</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU166" t="n">
         <v>1.56</v>
@@ -35007,7 +35007,7 @@
         <v>1.42</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU170" t="n">
         <v>1.67</v>
@@ -36628,7 +36628,7 @@
         <v>0.89</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT178" t="n">
         <v>0.73</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT179" t="n">
         <v>1.27</v>
@@ -37440,10 +37440,10 @@
         <v>1.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU182" t="n">
         <v>1.49</v>
@@ -38052,7 +38052,7 @@
         <v>1.25</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU185" t="n">
         <v>1.5</v>
@@ -38455,10 +38455,10 @@
         <v>1</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU187" t="n">
         <v>1.71</v>
@@ -40485,7 +40485,7 @@
         <v>0.8</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT197" t="n">
         <v>0.82</v>
@@ -41555,6 +41555,615 @@
       </c>
       <c r="BK202" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5403323</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F203" t="n">
+        <v>23</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Lovech</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Dobrudzha 1919</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="n">
+        <v>0</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>2</v>
+      </c>
+      <c r="S203" t="n">
+        <v>7</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5403321</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F204" t="n">
+        <v>23</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Yantra 2019</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>3</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['28', '80', '86']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3</v>
+      </c>
+      <c r="R204" t="n">
+        <v>3</v>
+      </c>
+      <c r="S204" t="n">
+        <v>6</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V204" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5403320</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45003.4375</v>
+      </c>
+      <c r="F205" t="n">
+        <v>23</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Sozopol</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Etar</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>2</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['2', '79']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>7</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>10</v>
+      </c>
+      <c r="T205" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V205" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.92</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>1.42</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.75</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT5" t="n">
         <v>0.75</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT6" t="n">
         <v>0.75</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT7" t="n">
         <v>0.75</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT8" t="n">
         <v>1.25</v>
@@ -2527,7 +2527,7 @@
         <v>1.92</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.83</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.75</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT13" t="n">
         <v>1.08</v>
@@ -3948,7 +3948,7 @@
         <v>1.92</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU17" t="n">
         <v>2.03</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT20" t="n">
         <v>0.75</v>
@@ -4760,7 +4760,7 @@
         <v>2.42</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU21" t="n">
         <v>1.39</v>
@@ -4963,7 +4963,7 @@
         <v>1.42</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU22" t="n">
         <v>2.15</v>
@@ -5166,7 +5166,7 @@
         <v>1.75</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU23" t="n">
         <v>1.29</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT24" t="n">
         <v>0.75</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT25" t="n">
         <v>1.08</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT26" t="n">
         <v>0.75</v>
@@ -5978,7 +5978,7 @@
         <v>1.92</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU27" t="n">
         <v>1.27</v>
@@ -6178,10 +6178,10 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU28" t="n">
         <v>1.83</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT29" t="n">
         <v>0.75</v>
@@ -7196,7 +7196,7 @@
         <v>1.92</v>
       </c>
       <c r="AT33" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU33" t="n">
         <v>1.96</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
         <v>0.75</v>
@@ -8411,10 +8411,10 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU39" t="n">
         <v>1.43</v>
@@ -8617,7 +8617,7 @@
         <v>1.75</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU40" t="n">
         <v>1.38</v>
@@ -8820,7 +8820,7 @@
         <v>1.92</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU41" t="n">
         <v>1.54</v>
@@ -9020,10 +9020,10 @@
         <v>1</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU42" t="n">
         <v>1.83</v>
@@ -9223,7 +9223,7 @@
         <v>1</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT43" t="n">
         <v>1.08</v>
@@ -9429,7 +9429,7 @@
         <v>2.42</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU44" t="n">
         <v>1.3</v>
@@ -9629,7 +9629,7 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT45" t="n">
         <v>0.75</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU46" t="n">
         <v>2.05</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT48" t="n">
         <v>0.75</v>
@@ -10850,7 +10850,7 @@
         <v>1.75</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU51" t="n">
         <v>1.38</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12065,7 +12065,7 @@
         <v>0</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT57" t="n">
         <v>0.75</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT58" t="n">
         <v>1.58</v>
@@ -12674,10 +12674,10 @@
         <v>0.33</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT60" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU60" t="n">
         <v>1.4</v>
@@ -12877,10 +12877,10 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU61" t="n">
         <v>1.57</v>
@@ -13080,10 +13080,10 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>2.05</v>
@@ -13286,7 +13286,7 @@
         <v>2.42</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU63" t="n">
         <v>1.51</v>
@@ -13489,7 +13489,7 @@
         <v>1.92</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU64" t="n">
         <v>1.43</v>
@@ -15519,7 +15519,7 @@
         <v>1.17</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,10 +15719,10 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -15922,7 +15922,7 @@
         <v>2.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT76" t="n">
         <v>1.58</v>
@@ -16125,10 +16125,10 @@
         <v>0</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU77" t="n">
         <v>1.4</v>
@@ -16328,10 +16328,10 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU78" t="n">
         <v>1.66</v>
@@ -16531,10 +16531,10 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU79" t="n">
         <v>2.05</v>
@@ -16737,7 +16737,7 @@
         <v>2.42</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU80" t="n">
         <v>1.72</v>
@@ -16937,7 +16937,7 @@
         <v>0</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT81" t="n">
         <v>0.75</v>
@@ -17140,10 +17140,10 @@
         <v>1.5</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU82" t="n">
         <v>1.72</v>
@@ -17343,7 +17343,7 @@
         <v>1.25</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT83" t="n">
         <v>1.75</v>
@@ -19170,10 +19170,10 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU92" t="n">
         <v>1.66</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU93" t="n">
         <v>1.8</v>
@@ -19576,10 +19576,10 @@
         <v>0.75</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU94" t="n">
         <v>1.72</v>
@@ -19779,10 +19779,10 @@
         <v>0.75</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT95" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU95" t="n">
         <v>1.75</v>
@@ -19982,7 +19982,7 @@
         <v>2.5</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT96" t="n">
         <v>1.58</v>
@@ -20185,7 +20185,7 @@
         <v>0.5</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT97" t="n">
         <v>0.58</v>
@@ -20391,7 +20391,7 @@
         <v>1.17</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU98" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>2.42</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU99" t="n">
         <v>1.67</v>
@@ -20797,7 +20797,7 @@
         <v>2.5</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.32</v>
@@ -21406,7 +21406,7 @@
         <v>2.08</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU103" t="n">
         <v>1.83</v>
@@ -22012,7 +22012,7 @@
         <v>1.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT106" t="n">
         <v>0.83</v>
@@ -22824,10 +22824,10 @@
         <v>1.67</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU110" t="n">
         <v>1.65</v>
@@ -23027,10 +23027,10 @@
         <v>0.8</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU111" t="n">
         <v>1.99</v>
@@ -23233,7 +23233,7 @@
         <v>1.17</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU112" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT113" t="n">
         <v>1.58</v>
@@ -23636,7 +23636,7 @@
         <v>1</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT114" t="n">
         <v>0.58</v>
@@ -23839,10 +23839,10 @@
         <v>0.8</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT115" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU115" t="n">
         <v>1.92</v>
@@ -24045,7 +24045,7 @@
         <v>1.58</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU116" t="n">
         <v>1.85</v>
@@ -24245,7 +24245,7 @@
         <v>1.6</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT117" t="n">
         <v>1.75</v>
@@ -24451,7 +24451,7 @@
         <v>2.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU118" t="n">
         <v>1.46</v>
@@ -24654,7 +24654,7 @@
         <v>2.08</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU119" t="n">
         <v>1.79</v>
@@ -25463,7 +25463,7 @@
         <v>1</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT123" t="n">
         <v>1.25</v>
@@ -25666,7 +25666,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT124" t="n">
         <v>0.83</v>
@@ -26075,7 +26075,7 @@
         <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU126" t="n">
         <v>1.32</v>
@@ -26478,10 +26478,10 @@
         <v>1.86</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU128" t="n">
         <v>1.76</v>
@@ -26681,7 +26681,7 @@
         <v>0.83</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT129" t="n">
         <v>0.58</v>
@@ -26887,7 +26887,7 @@
         <v>1.17</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU130" t="n">
         <v>1.14</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT131" t="n">
         <v>1.08</v>
@@ -27293,7 +27293,7 @@
         <v>1.58</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU132" t="n">
         <v>1.85</v>
@@ -27493,7 +27493,7 @@
         <v>1.83</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT133" t="n">
         <v>1.58</v>
@@ -27696,7 +27696,7 @@
         <v>1.83</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT134" t="n">
         <v>1.75</v>
@@ -27902,7 +27902,7 @@
         <v>1.83</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU135" t="n">
         <v>1.38</v>
@@ -28105,7 +28105,7 @@
         <v>2.5</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU136" t="n">
         <v>1.63</v>
@@ -28305,7 +28305,7 @@
         <v>1</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT137" t="n">
         <v>0.75</v>
@@ -28914,7 +28914,7 @@
         <v>0.5</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT140" t="n">
         <v>0.75</v>
@@ -29117,7 +29117,7 @@
         <v>0.88</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT141" t="n">
         <v>1.25</v>
@@ -29323,7 +29323,7 @@
         <v>2.08</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU142" t="n">
         <v>1.76</v>
@@ -29729,7 +29729,7 @@
         <v>1.42</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU144" t="n">
         <v>1.63</v>
@@ -29932,7 +29932,7 @@
         <v>1.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU145" t="n">
         <v>1.6</v>
@@ -30335,7 +30335,7 @@
         <v>0.71</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT147" t="n">
         <v>0.58</v>
@@ -30538,10 +30538,10 @@
         <v>1.63</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU148" t="n">
         <v>1.78</v>
@@ -30744,7 +30744,7 @@
         <v>2.5</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU149" t="n">
         <v>1.61</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT150" t="n">
         <v>1.08</v>
@@ -31150,7 +31150,7 @@
         <v>1.83</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU151" t="n">
         <v>1.6</v>
@@ -31353,7 +31353,7 @@
         <v>1.5</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU152" t="n">
         <v>1.35</v>
@@ -31756,7 +31756,7 @@
         <v>1.14</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT154" t="n">
         <v>0.83</v>
@@ -31962,7 +31962,7 @@
         <v>1.58</v>
       </c>
       <c r="AT155" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU155" t="n">
         <v>1.72</v>
@@ -32365,7 +32365,7 @@
         <v>1</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT157" t="n">
         <v>0.83</v>
@@ -32568,7 +32568,7 @@
         <v>0.88</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT158" t="n">
         <v>0.75</v>
@@ -32774,7 +32774,7 @@
         <v>1.5</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU159" t="n">
         <v>1.43</v>
@@ -33177,7 +33177,7 @@
         <v>1.88</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT161" t="n">
         <v>1.75</v>
@@ -33586,7 +33586,7 @@
         <v>2.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU163" t="n">
         <v>1.8</v>
@@ -33786,7 +33786,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT164" t="n">
         <v>0.75</v>
@@ -33989,10 +33989,10 @@
         <v>0.33</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU165" t="n">
         <v>1.5</v>
@@ -34192,7 +34192,7 @@
         <v>0.78</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT166" t="n">
         <v>1.08</v>
@@ -34398,7 +34398,7 @@
         <v>1.75</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU167" t="n">
         <v>1.78</v>
@@ -34601,7 +34601,7 @@
         <v>1.42</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU168" t="n">
         <v>1.58</v>
@@ -34801,7 +34801,7 @@
         <v>0.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT169" t="n">
         <v>0.75</v>
@@ -35004,10 +35004,10 @@
         <v>1.56</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU170" t="n">
         <v>1.67</v>
@@ -35413,7 +35413,7 @@
         <v>1.92</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU172" t="n">
         <v>1.51</v>
@@ -35616,7 +35616,7 @@
         <v>1.5</v>
       </c>
       <c r="AT173" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU173" t="n">
         <v>1.42</v>
@@ -35816,7 +35816,7 @@
         <v>0.89</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT174" t="n">
         <v>0.83</v>
@@ -36831,7 +36831,7 @@
         <v>0.89</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT179" t="n">
         <v>1.25</v>
@@ -37037,7 +37037,7 @@
         <v>2.08</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU180" t="n">
         <v>1.73</v>
@@ -37440,10 +37440,10 @@
         <v>1.5</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU182" t="n">
         <v>1.49</v>
@@ -37646,7 +37646,7 @@
         <v>1.92</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU183" t="n">
         <v>1.5</v>
@@ -37846,7 +37846,7 @@
         <v>0.5</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT184" t="n">
         <v>0.75</v>
@@ -38049,10 +38049,10 @@
         <v>0.6</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU185" t="n">
         <v>1.5</v>
@@ -38255,7 +38255,7 @@
         <v>2.42</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU186" t="n">
         <v>1.65</v>
@@ -38455,7 +38455,7 @@
         <v>1</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT187" t="n">
         <v>1.08</v>
@@ -38658,10 +38658,10 @@
         <v>0.4</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT188" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU188" t="n">
         <v>1.46</v>
@@ -38864,7 +38864,7 @@
         <v>1.75</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU189" t="n">
         <v>1.74</v>
@@ -39064,7 +39064,7 @@
         <v>0.3</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT190" t="n">
         <v>0.75</v>
@@ -39473,7 +39473,7 @@
         <v>1.42</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU192" t="n">
         <v>1.55</v>
@@ -40282,7 +40282,7 @@
         <v>1.1</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT196" t="n">
         <v>1.25</v>
@@ -41094,10 +41094,10 @@
         <v>0.55</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU200" t="n">
         <v>1.45</v>
@@ -41297,10 +41297,10 @@
         <v>0.36</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU201" t="n">
         <v>1.49</v>
@@ -41500,7 +41500,7 @@
         <v>0.55</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT202" t="n">
         <v>0.75</v>
@@ -41703,10 +41703,10 @@
         <v>0.82</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU203" t="n">
         <v>1.65</v>
@@ -41906,7 +41906,7 @@
         <v>1.18</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT204" t="n">
         <v>1.08</v>
@@ -42112,7 +42112,7 @@
         <v>1.17</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU205" t="n">
         <v>1.04</v>
@@ -42315,7 +42315,7 @@
         <v>2.42</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU206" t="n">
         <v>1.63</v>
@@ -42515,10 +42515,10 @@
         <v>1.55</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AU207" t="n">
         <v>1.57</v>
@@ -42921,7 +42921,7 @@
         <v>0.55</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT209" t="n">
         <v>0.75</v>
@@ -44548,7 +44548,7 @@
         <v>2.08</v>
       </c>
       <c r="AT217" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU217" t="n">
         <v>1.71</v>
@@ -44600,6 +44600,1427 @@
       </c>
       <c r="BK217" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5403341</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45023.45833333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Dunav 2010</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Levski Krumovgrad</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>2</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="n">
+        <v>3</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['9', '84']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>4</v>
+      </c>
+      <c r="R218" t="n">
+        <v>7</v>
+      </c>
+      <c r="S218" t="n">
+        <v>11</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V218" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5403338</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45024.375</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Yantra 2019</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Etar</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>2</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2</v>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="n">
+        <v>3</v>
+      </c>
+      <c r="N219" t="n">
+        <v>4</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>['55']</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['8', '38', '85']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>7</v>
+      </c>
+      <c r="R219" t="n">
+        <v>2</v>
+      </c>
+      <c r="S219" t="n">
+        <v>9</v>
+      </c>
+      <c r="T219" t="n">
+        <v>5</v>
+      </c>
+      <c r="U219" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5403346</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>FK Minyor Pernik</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Belasitsa</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>3</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['6', '54']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>5</v>
+      </c>
+      <c r="R220" t="n">
+        <v>1</v>
+      </c>
+      <c r="S220" t="n">
+        <v>6</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2</v>
+      </c>
+      <c r="V220" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5403344</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Strumska slava</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Vitosha Bistritsa</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>1</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>3</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0</v>
+      </c>
+      <c r="N221" t="n">
+        <v>3</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['20', '66', '90']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>3</v>
+      </c>
+      <c r="R221" t="n">
+        <v>3</v>
+      </c>
+      <c r="S221" t="n">
+        <v>6</v>
+      </c>
+      <c r="T221" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V221" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>9.85</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5403343</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Spartak Pleven</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Montana</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>4</v>
+      </c>
+      <c r="R222" t="n">
+        <v>4</v>
+      </c>
+      <c r="S222" t="n">
+        <v>8</v>
+      </c>
+      <c r="T222" t="n">
+        <v>5</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X222" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5403342</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Lovech</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Botev Plovdiv II</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>10</v>
+      </c>
+      <c r="R223" t="n">
+        <v>1</v>
+      </c>
+      <c r="S223" t="n">
+        <v>11</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V223" t="n">
+        <v>7</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>21</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>27</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>5403340</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F224" t="n">
+        <v>25</v>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Maritsa Plovdiv</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Dobrudzha 1919</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="n">
+        <v>3</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>['16', '66']</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q224" t="n">
+        <v>5</v>
+      </c>
+      <c r="R224" t="n">
+        <v>5</v>
+      </c>
+      <c r="S224" t="n">
+        <v>10</v>
+      </c>
+      <c r="T224" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U224" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V224" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X224" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC224" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD224" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF224" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG224" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="AH224" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI224" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ224" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK224" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL224" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AM224" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN224" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO224" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP224" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ224" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR224" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS224" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT224" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU224" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV224" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW224" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY224" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE224" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG224" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH224" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI224" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ224" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK224" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK224"/>
+  <dimension ref="A1:BK225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.69</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT19" t="n">
         <v>0.83</v>
@@ -4557,7 +4557,7 @@
         <v>1.38</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU20" t="n">
         <v>2.05</v>
@@ -8005,7 +8005,7 @@
         <v>2</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT37" t="n">
         <v>1.25</v>
@@ -9632,7 +9632,7 @@
         <v>1.46</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU45" t="n">
         <v>2.05</v>
@@ -12068,7 +12068,7 @@
         <v>2</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU57" t="n">
         <v>1.82</v>
@@ -12471,7 +12471,7 @@
         <v>1.67</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT59" t="n">
         <v>1.08</v>
@@ -15516,7 +15516,7 @@
         <v>0.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT74" t="n">
         <v>0.6899999999999999</v>
@@ -16940,7 +16940,7 @@
         <v>1.15</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU81" t="n">
         <v>1.67</v>
@@ -18564,7 +18564,7 @@
         <v>2.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU89" t="n">
         <v>1.79</v>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT98" t="n">
         <v>0.54</v>
@@ -22624,7 +22624,7 @@
         <v>1.83</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU109" t="n">
         <v>1.26</v>
@@ -23230,7 +23230,7 @@
         <v>0.6</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT112" t="n">
         <v>0.54</v>
@@ -26278,7 +26278,7 @@
         <v>1.92</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU127" t="n">
         <v>1.57</v>
@@ -26884,7 +26884,7 @@
         <v>1.17</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT130" t="n">
         <v>0.92</v>
@@ -28511,7 +28511,7 @@
         <v>1.75</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU138" t="n">
         <v>1.78</v>
@@ -30132,7 +30132,7 @@
         <v>1.71</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT146" t="n">
         <v>1.75</v>
@@ -32162,7 +32162,7 @@
         <v>1.25</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT156" t="n">
         <v>1.08</v>
@@ -35210,7 +35210,7 @@
         <v>2.42</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -36628,7 +36628,7 @@
         <v>0.89</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT178" t="n">
         <v>0.75</v>
@@ -39067,7 +39067,7 @@
         <v>1.69</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU190" t="n">
         <v>1.65</v>
@@ -40485,7 +40485,7 @@
         <v>0.8</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT197" t="n">
         <v>0.75</v>
@@ -41503,7 +41503,7 @@
         <v>1.54</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU202" t="n">
         <v>1.73</v>
@@ -42109,7 +42109,7 @@
         <v>1.64</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT205" t="n">
         <v>1.85</v>
@@ -46021,6 +46021,209 @@
       </c>
       <c r="BK224" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>5403339</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F225" t="n">
+        <v>25</v>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Sozopol</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Ludogorets II</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>2</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="n">
+        <v>3</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>['68', '78']</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="Q225" t="n">
+        <v>9</v>
+      </c>
+      <c r="R225" t="n">
+        <v>5</v>
+      </c>
+      <c r="S225" t="n">
+        <v>14</v>
+      </c>
+      <c r="T225" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U225" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V225" t="n">
+        <v>3</v>
+      </c>
+      <c r="W225" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X225" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD225" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE225" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG225" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI225" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ225" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL225" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM225" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN225" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO225" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP225" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ225" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR225" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS225" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT225" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU225" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV225" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW225" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY225" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE225" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF225" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG225" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH225" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI225" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ225" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK225" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Bulgaria Second League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK225"/>
+  <dimension ref="A1:BK226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT9" t="n">
         <v>1.08</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT21" t="n">
         <v>0.6899999999999999</v>
@@ -7602,7 +7602,7 @@
         <v>1.42</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU35" t="n">
         <v>1.94</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT44" t="n">
         <v>0.54</v>
@@ -12271,7 +12271,7 @@
         <v>1.69</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU58" t="n">
         <v>1.72</v>
@@ -13283,7 +13283,7 @@
         <v>1.5</v>
       </c>
       <c r="AS63" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT63" t="n">
         <v>0.54</v>
@@ -15925,7 +15925,7 @@
         <v>1.38</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU76" t="n">
         <v>1.78</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT80" t="n">
         <v>0.92</v>
@@ -19985,7 +19985,7 @@
         <v>1.46</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU96" t="n">
         <v>1.87</v>
@@ -20591,7 +20591,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT99" t="n">
         <v>1.85</v>
@@ -22418,7 +22418,7 @@
         <v>1.2</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT108" t="n">
         <v>1.08</v>
@@ -23436,7 +23436,7 @@
         <v>2</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU113" t="n">
         <v>1.66</v>
@@ -25869,7 +25869,7 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT125" t="n">
         <v>0.75</v>
@@ -27496,7 +27496,7 @@
         <v>1.15</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU133" t="n">
         <v>1.83</v>
@@ -29523,7 +29523,7 @@
         <v>0.63</v>
       </c>
       <c r="AS143" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT143" t="n">
         <v>0.75</v>
@@ -31556,7 +31556,7 @@
         <v>1.58</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU153" t="n">
         <v>1.66</v>
@@ -33383,7 +33383,7 @@
         <v>1.83</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU162" t="n">
         <v>1.6</v>
@@ -35207,7 +35207,7 @@
         <v>0.33</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT171" t="n">
         <v>0.6899999999999999</v>
@@ -36022,7 +36022,7 @@
         <v>1.92</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU175" t="n">
         <v>1.68</v>
@@ -38252,7 +38252,7 @@
         <v>1.7</v>
       </c>
       <c r="AS186" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT186" t="n">
         <v>1.38</v>
@@ -39270,7 +39270,7 @@
         <v>2.08</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU191" t="n">
         <v>1.68</v>
@@ -42312,7 +42312,7 @@
         <v>1.18</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AT206" t="n">
         <v>1.23</v>
@@ -42721,7 +42721,7 @@
         <v>1.92</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AU208" t="n">
         <v>1.51</v>
@@ -46224,6 +46224,209 @@
       </c>
       <c r="BK225" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>5403345</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Bulgaria Second League</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45027.45833333334</v>
+      </c>
+      <c r="F226" t="n">
+        <v>25</v>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>CSKA 1948 Sofia II</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Sportist Svoge</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q226" t="n">
+        <v>7</v>
+      </c>
+      <c r="R226" t="n">
+        <v>7</v>
+      </c>
+      <c r="S226" t="n">
+        <v>14</v>
+      </c>
+      <c r="T226" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U226" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V226" t="n">
+        <v>7</v>
+      </c>
+      <c r="W226" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X226" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA226" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC226" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD226" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE226" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG226" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AH226" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI226" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ226" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK226" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM226" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN226" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO226" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ226" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AR226" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS226" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AT226" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU226" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV226" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW226" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY226" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE226" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG226" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH226" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI226" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ226" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK226" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
